--- a/2022/Realme/APRIL/21.04.2022/realme Bank Statement April-20222.xlsx
+++ b/2022/Realme/APRIL/21.04.2022/realme Bank Statement April-20222.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="April-2022" sheetId="7" r:id="rId1"/>
@@ -2565,12 +2565,45 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,39 +2614,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4143,7 +4143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
@@ -4162,67 +4162,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="269"/>
+      <c r="N1" s="269"/>
+      <c r="O1" s="269"/>
+      <c r="P1" s="269"/>
+      <c r="Q1" s="269"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="270"/>
+      <c r="L2" s="270"/>
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="270"/>
+      <c r="Q2" s="270"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="271" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="279"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="272"/>
+      <c r="M3" s="272"/>
+      <c r="N3" s="272"/>
+      <c r="O3" s="272"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="273"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4231,52 +4231,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="276" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="269" t="s">
+      <c r="E4" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="269" t="s">
+      <c r="F4" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="269" t="s">
+      <c r="G4" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="269" t="s">
+      <c r="H4" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="269" t="s">
+      <c r="I4" s="278" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="269" t="s">
+      <c r="J4" s="278" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="269" t="s">
+      <c r="K4" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="269" t="s">
+      <c r="L4" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="269" t="s">
+      <c r="M4" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="273" t="s">
+      <c r="N4" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="271" t="s">
+      <c r="O4" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="280" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4289,22 +4289,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="285"/>
+      <c r="A5" s="275"/>
+      <c r="B5" s="277"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
+      <c r="H5" s="279"/>
+      <c r="I5" s="279"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="279"/>
+      <c r="L5" s="279"/>
+      <c r="M5" s="279"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="283"/>
+      <c r="P5" s="281"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -7352,6 +7352,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7368,9 +7371,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7382,8 +7382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9300,10 +9300,12 @@
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="D29" s="43">
+        <v>-750390</v>
+      </c>
       <c r="E29" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-750390</v>
       </c>
       <c r="F29" s="144"/>
       <c r="G29" s="38"/>
@@ -9436,12 +9438,10 @@
       <c r="A31" s="42"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="43">
-        <v>-757860</v>
-      </c>
+      <c r="D31" s="43"/>
       <c r="E31" s="43">
         <f t="shared" si="0"/>
-        <v>-757860</v>
+        <v>0</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="60"/>
@@ -9580,11 +9580,11 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-757860</v>
+        <v>-750390</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>757860</v>
+        <v>750390</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="147"/>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="B45" s="223"/>
       <c r="C45" s="224">
-        <v>112630</v>
+        <v>105160</v>
       </c>
       <c r="D45" s="226" t="s">
         <v>116</v>
@@ -15088,7 +15088,7 @@
       <c r="B119" s="289"/>
       <c r="C119" s="221">
         <f>SUM(C37:C118)</f>
-        <v>757860</v>
+        <v>750390</v>
       </c>
       <c r="D119" s="220"/>
       <c r="F119" s="240"/>
@@ -16530,8 +16530,8 @@
   </sheetPr>
   <dimension ref="A1:AB218"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16725,7 +16725,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="180">
-        <v>695120.30000000075</v>
+        <v>702590.30000000075</v>
       </c>
       <c r="F7" s="184"/>
       <c r="H7" s="1"/>
@@ -16824,7 +16824,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="157">
-        <v>757860</v>
+        <v>750390</v>
       </c>
       <c r="F10" s="184"/>
       <c r="H10" s="27"/>
